--- a/zScript/myLibrary.xlsx
+++ b/zScript/myLibrary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcn0\Documents\GitHub\Zacky0922.github.io\zScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\z\GitHub\Zacky0922.github.io\zScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BE6C28-8297-47F5-9A66-B79342CFBBC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D257C88E-63D8-4FF2-825F-04EA9F8BF8F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="18510" windowHeight="15600" activeTab="3" xr2:uid="{5DC89E51-D0F3-49DE-8CDC-3A91AF456A15}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="16200" activeTab="3" xr2:uid="{5DC89E51-D0F3-49DE-8CDC-3A91AF456A15}"/>
   </bookViews>
   <sheets>
     <sheet name="library" sheetId="1" r:id="rId1"/>
@@ -3357,8 +3357,7 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3406,7 +3405,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3690,25 +3690,25 @@
     <sortCondition ref="I1:I261"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{29BC21F1-CB83-4DC7-AFF1-FD20F8765EE8}" name="列1" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{29BC21F1-CB83-4DC7-AFF1-FD20F8765EE8}" name="列1" dataDxfId="16">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9E2FF342-2C9E-43EF-B8F9-F018D6D9D1B5}" name="title" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{0C356B42-B067-4AEE-B926-BA3BD0FE49C0}" name="title2" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{A2A3D99B-8F52-43BA-A1FA-56CFFBF5D4C6}" name="url" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{A2A3D99B-8F52-43BA-A1FA-56CFFBF5D4C6}" name="url" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{9E2FF342-2C9E-43EF-B8F9-F018D6D9D1B5}" name="title" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{0C356B42-B067-4AEE-B926-BA3BD0FE49C0}" name="title2" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{E6423E3D-5141-407F-A539-7E119FADED85}" name="description" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{C242CBF3-80B7-4C84-B59B-53C01739D6BA}" name="Group0" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{134E6891-617E-4522-BED4-DEF747AA7A94}" name="Group0_" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{229E38AA-7C74-4EA3-ADA8-2AB9FECF311E}" name="active" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{C19DC94E-EB5C-460D-9104-A1AEB178A5F1}" name="内容分類" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{46E0261D-C643-45EF-9B68-832EFDE5D4A9}" name="内容分類index" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{3B979C3D-9126-4557-BD4D-184F8776E825}" name="サイト分類" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{35B437E3-7B16-4BBF-B974-51BE6F57F92D}" name="学校的科目" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{B26D7908-2F7A-4A8F-8C6F-D26028D996E0}" name="その他科目" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{73B1562C-05B3-41FB-8AC4-6D1E09E569DC}" name="科目詳細" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{7D16CCEC-969D-47AF-BEFA-FA573F7CB6A9}" name="細目" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{8C2859B2-B384-43C4-99D4-7B07CA91B315}" name="場所・所属" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{B1BD48E3-6552-498A-A0B6-C7B0E9A62E63}" name="タグ" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{46E0261D-C643-45EF-9B68-832EFDE5D4A9}" name="内容分類index" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{3B979C3D-9126-4557-BD4D-184F8776E825}" name="サイト分類" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{35B437E3-7B16-4BBF-B974-51BE6F57F92D}" name="学校的科目" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{B26D7908-2F7A-4A8F-8C6F-D26028D996E0}" name="その他科目" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{73B1562C-05B3-41FB-8AC4-6D1E09E569DC}" name="科目詳細" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{7D16CCEC-969D-47AF-BEFA-FA573F7CB6A9}" name="細目" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{8C2859B2-B384-43C4-99D4-7B07CA91B315}" name="場所・所属" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{B1BD48E3-6552-498A-A0B6-C7B0E9A62E63}" name="タグ" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6282,29 +6282,29 @@
   <dimension ref="A1:Q261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D227" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D241" sqref="D241"/>
+      <selection pane="bottomRight" activeCell="E266" sqref="E266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.75" style="28" customWidth="1"/>
-    <col min="3" max="3" width="19" style="28" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="25" customWidth="1"/>
-    <col min="6" max="7" width="12.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="25" customWidth="1"/>
-    <col min="11" max="13" width="13.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="35.75" style="25"/>
+    <col min="2" max="2" width="28.125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19" style="28" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="25" customWidth="1"/>
+    <col min="7" max="8" width="12.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="25" customWidth="1"/>
+    <col min="12" max="14" width="13.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="35.75" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.4">
@@ -6312,13 +6312,13 @@
         <v>167</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>774</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>169</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>170</v>
@@ -6360,17 +6360,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2" s="25">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>183</v>
-      </c>
+      <c r="E2" s="25"/>
       <c r="I2" s="25" t="s">
         <v>184</v>
       </c>
@@ -6383,15 +6384,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="25">
-        <f t="shared" ref="A2:A65" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A65" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>188</v>
-      </c>
+      <c r="E3" s="25"/>
       <c r="I3" s="25" t="s">
         <v>184</v>
       </c>
@@ -6405,11 +6407,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>190</v>
-      </c>
+      <c r="E4" s="25"/>
       <c r="I4" s="25" t="s">
         <v>184</v>
       </c>
@@ -6426,11 +6429,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>194</v>
-      </c>
+      <c r="E5" s="25"/>
       <c r="I5" s="25" t="s">
         <v>184</v>
       </c>
@@ -6447,11 +6451,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>196</v>
-      </c>
+      <c r="E6" s="25"/>
       <c r="I6" s="25" t="s">
         <v>184</v>
       </c>
@@ -6468,11 +6473,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>198</v>
-      </c>
+      <c r="E7" s="25"/>
       <c r="I7" s="25" t="s">
         <v>184</v>
       </c>
@@ -6486,11 +6492,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>200</v>
-      </c>
+      <c r="E8" s="25"/>
       <c r="I8" s="25" t="s">
         <v>184</v>
       </c>
@@ -6503,12 +6510,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="28" t="s">
+        <v>782</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>783</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>782</v>
-      </c>
+      <c r="E9" s="25"/>
       <c r="I9" s="25" t="s">
         <v>204</v>
       </c>
@@ -6524,12 +6532,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="28" t="s">
+        <v>784</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>785</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>784</v>
-      </c>
+      <c r="E10" s="25"/>
       <c r="I10" s="25" t="s">
         <v>204</v>
       </c>
@@ -6545,12 +6554,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="28" t="s">
+        <v>786</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>787</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>786</v>
-      </c>
+      <c r="E11" s="25"/>
       <c r="I11" s="25" t="s">
         <v>204</v>
       </c>
@@ -6566,12 +6576,13 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="28" t="s">
+        <v>788</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>789</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>788</v>
-      </c>
+      <c r="E12" s="25"/>
       <c r="I12" s="25" t="s">
         <v>204</v>
       </c>
@@ -6587,12 +6598,13 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="28" t="s">
+        <v>791</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>792</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>791</v>
-      </c>
+      <c r="E13" s="25"/>
       <c r="I13" s="25" t="s">
         <v>204</v>
       </c>
@@ -6609,13 +6621,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="D14" s="28" t="s">
         <v>790</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>207</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>203</v>
@@ -6636,13 +6648,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="D15" s="28" t="s">
         <v>793</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>209</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>203</v>
@@ -6662,12 +6674,13 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="28" t="s">
+        <v>794</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>795</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>794</v>
-      </c>
+      <c r="E16" s="25"/>
       <c r="I16" s="25" t="s">
         <v>204</v>
       </c>
@@ -6683,12 +6696,13 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="28" t="s">
+        <v>796</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>797</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>796</v>
-      </c>
+      <c r="E17" s="25"/>
       <c r="I17" s="25" t="s">
         <v>204</v>
       </c>
@@ -6704,12 +6718,13 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="B18" s="28" t="s">
+        <v>798</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>799</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>798</v>
-      </c>
+      <c r="E18" s="25"/>
       <c r="I18" s="25" t="s">
         <v>204</v>
       </c>
@@ -6726,11 +6741,12 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>808</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>807</v>
-      </c>
+      <c r="E19" s="25"/>
       <c r="I19" s="25" t="s">
         <v>204</v>
       </c>
@@ -6747,13 +6763,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="D20" s="28" t="s">
         <v>800</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>202</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>203</v>
@@ -6774,10 +6790,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>210</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>211</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>203</v>
@@ -6798,10 +6814,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>212</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>213</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>203</v>
@@ -6821,12 +6837,13 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="B23" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="D23" s="28" t="s">
         <v>802</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>801</v>
-      </c>
+      <c r="E23" s="25"/>
       <c r="H23" s="25" t="b">
         <v>0</v>
       </c>
@@ -6843,10 +6860,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>289</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>290</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>203</v>
@@ -6864,10 +6881,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>291</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>292</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>203</v>
@@ -6885,10 +6902,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>293</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>294</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>203</v>
@@ -6906,10 +6923,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>295</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>296</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>203</v>
@@ -6927,10 +6944,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>297</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>298</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>203</v>
@@ -6948,10 +6965,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>299</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>300</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>203</v>
@@ -6969,10 +6986,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30" s="28" t="s">
         <v>301</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>302</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>203</v>
@@ -6990,10 +7007,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>303</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>304</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>203</v>
@@ -7011,10 +7028,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>305</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>306</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>203</v>
@@ -7032,10 +7049,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>307</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>308</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>203</v>
@@ -7053,10 +7070,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>309</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>310</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>203</v>
@@ -7074,10 +7091,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C35" s="28" t="s">
         <v>311</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>312</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>203</v>
@@ -7095,10 +7112,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" s="28" t="s">
         <v>313</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>314</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>203</v>
@@ -7116,10 +7133,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C37" s="28" t="s">
         <v>315</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>316</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>203</v>
@@ -7137,10 +7154,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C38" s="28" t="s">
         <v>317</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>318</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>203</v>
@@ -7158,10 +7175,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C39" s="28" t="s">
         <v>319</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>320</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>203</v>
@@ -7179,11 +7196,12 @@
         <v>39</v>
       </c>
       <c r="B40" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="D40" s="28" t="s">
-        <v>322</v>
-      </c>
+      <c r="E40" s="25"/>
       <c r="I40" s="25" t="s">
         <v>323</v>
       </c>
@@ -7197,11 +7215,12 @@
         <v>40</v>
       </c>
       <c r="B41" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="C41" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="D41" s="28" t="s">
-        <v>326</v>
-      </c>
+      <c r="E41" s="25"/>
       <c r="I41" s="25" t="s">
         <v>323</v>
       </c>
@@ -7215,11 +7234,12 @@
         <v>41</v>
       </c>
       <c r="B42" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="D42" s="28" t="s">
-        <v>328</v>
-      </c>
+      <c r="E42" s="25"/>
       <c r="I42" s="25" t="s">
         <v>323</v>
       </c>
@@ -7233,11 +7253,12 @@
         <v>42</v>
       </c>
       <c r="B43" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="D43" s="28" t="s">
-        <v>330</v>
-      </c>
+      <c r="E43" s="25"/>
       <c r="I43" s="25" t="s">
         <v>323</v>
       </c>
@@ -7251,11 +7272,12 @@
         <v>43</v>
       </c>
       <c r="B44" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>332</v>
-      </c>
+      <c r="E44" s="25"/>
       <c r="I44" s="25" t="s">
         <v>323</v>
       </c>
@@ -7269,11 +7291,12 @@
         <v>44</v>
       </c>
       <c r="B45" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="C45" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="D45" s="28" t="s">
-        <v>334</v>
-      </c>
+      <c r="E45" s="25"/>
       <c r="I45" s="25" t="s">
         <v>323</v>
       </c>
@@ -7287,11 +7310,12 @@
         <v>45</v>
       </c>
       <c r="B46" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="D46" s="28" t="s">
-        <v>336</v>
-      </c>
+      <c r="E46" s="25"/>
       <c r="I46" s="25" t="s">
         <v>323</v>
       </c>
@@ -7305,11 +7329,12 @@
         <v>46</v>
       </c>
       <c r="B47" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="D47" s="28" t="s">
-        <v>338</v>
-      </c>
+      <c r="E47" s="25"/>
       <c r="I47" s="25" t="s">
         <v>323</v>
       </c>
@@ -7323,11 +7348,12 @@
         <v>47</v>
       </c>
       <c r="B48" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="C48" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="D48" s="28" t="s">
-        <v>340</v>
-      </c>
+      <c r="E48" s="25"/>
       <c r="I48" s="25" t="s">
         <v>323</v>
       </c>
@@ -7341,11 +7367,12 @@
         <v>48</v>
       </c>
       <c r="B49" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="D49" s="28" t="s">
-        <v>342</v>
-      </c>
+      <c r="E49" s="25"/>
       <c r="I49" s="25" t="s">
         <v>323</v>
       </c>
@@ -7359,11 +7386,12 @@
         <v>49</v>
       </c>
       <c r="B50" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="D50" s="28" t="s">
-        <v>344</v>
-      </c>
+      <c r="E50" s="25"/>
       <c r="I50" s="25" t="s">
         <v>323</v>
       </c>
@@ -7374,11 +7402,12 @@
         <v>50</v>
       </c>
       <c r="B51" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="C51" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="D51" s="28" t="s">
-        <v>346</v>
-      </c>
+      <c r="E51" s="25"/>
       <c r="I51" s="25" t="s">
         <v>323</v>
       </c>
@@ -7389,10 +7418,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C52" s="28" t="s">
         <v>347</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>348</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>203</v>
@@ -7401,16 +7430,16 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="187.5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.4">
       <c r="A53" s="25">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" s="28" t="s">
         <v>214</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>215</v>
       </c>
       <c r="E53" s="25" t="s">
         <v>765</v>
@@ -7425,16 +7454,16 @@
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A54" s="25">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>766</v>
@@ -7449,16 +7478,16 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="281.25" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A55" s="25">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="28" t="s">
         <v>221</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>222</v>
       </c>
       <c r="E55" s="25" t="s">
         <v>772</v>
@@ -7476,16 +7505,16 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="150" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A56" s="25">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>224</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>225</v>
       </c>
       <c r="E56" s="25" t="s">
         <v>767</v>
@@ -7511,11 +7540,11 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="C57" s="28" t="s">
         <v>228</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>776</v>
       </c>
       <c r="E57" s="25" t="s">
         <v>203</v>
@@ -7530,16 +7559,16 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58" s="25">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="C58" s="28" t="s">
         <v>230</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>775</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>231</v>
@@ -7557,16 +7586,16 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A59" s="25">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="28" t="s">
         <v>233</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>234</v>
       </c>
       <c r="E59" s="25" t="s">
         <v>768</v>
@@ -7581,16 +7610,16 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="356.25" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A60" s="25">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="28" t="s">
         <v>235</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>236</v>
       </c>
       <c r="E60" s="25" t="s">
         <v>771</v>
@@ -7605,16 +7634,16 @@
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A61" s="25">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="28" t="s">
         <v>237</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>238</v>
       </c>
       <c r="E61" s="25" t="s">
         <v>239</v>
@@ -7629,16 +7658,16 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="206.25" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" ht="75" x14ac:dyDescent="0.4">
       <c r="A62" s="25">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" s="28" t="s">
         <v>240</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>241</v>
       </c>
       <c r="E62" s="25" t="s">
         <v>242</v>
@@ -7653,16 +7682,16 @@
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A63" s="25">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" s="28" t="s">
         <v>243</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>244</v>
       </c>
       <c r="E63" s="25" t="s">
         <v>769</v>
@@ -7677,16 +7706,16 @@
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A64" s="25">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="28" t="s">
         <v>245</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>246</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>770</v>
@@ -7701,16 +7730,16 @@
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="75" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A65" s="25">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" s="28" t="s">
         <v>247</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>248</v>
       </c>
       <c r="E65" s="25" t="s">
         <v>249</v>
@@ -7730,11 +7759,11 @@
         <f t="shared" ref="A66:A129" si="1">ROW()-1</f>
         <v>65</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="29" t="s">
+        <v>777</v>
+      </c>
+      <c r="C66" s="28" t="s">
         <v>250</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>777</v>
       </c>
       <c r="E66" s="25" t="s">
         <v>203</v>
@@ -7755,10 +7784,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" s="28" t="s">
         <v>251</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>252</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>203</v>
@@ -7773,10 +7802,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="28" t="s">
         <v>253</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>254</v>
       </c>
       <c r="E68" s="25" t="s">
         <v>203</v>
@@ -7791,10 +7820,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69" s="28" t="s">
         <v>255</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>256</v>
       </c>
       <c r="E69" s="25" t="s">
         <v>203</v>
@@ -7815,10 +7844,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C70" s="28" t="s">
         <v>259</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>260</v>
       </c>
       <c r="E70" s="25" t="s">
         <v>203</v>
@@ -7839,10 +7868,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" s="28" t="s">
         <v>261</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>262</v>
       </c>
       <c r="E71" s="25" t="s">
         <v>203</v>
@@ -7863,11 +7892,12 @@
         <v>71</v>
       </c>
       <c r="B72" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="D72" s="28" t="s">
-        <v>264</v>
-      </c>
+      <c r="E72" s="25"/>
       <c r="I72" s="25" t="s">
         <v>216</v>
       </c>
@@ -7881,11 +7911,12 @@
         <v>72</v>
       </c>
       <c r="B73" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="D73" s="28" t="s">
-        <v>267</v>
-      </c>
+      <c r="E73" s="25"/>
       <c r="I73" s="25" t="s">
         <v>216</v>
       </c>
@@ -7899,10 +7930,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="C74" s="28" t="s">
         <v>350</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>351</v>
       </c>
       <c r="E74" s="25" t="s">
         <v>203</v>
@@ -7911,16 +7942,16 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="168.75" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A75" s="25">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C75" s="28" t="s">
         <v>352</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>353</v>
       </c>
       <c r="E75" s="25" t="s">
         <v>354</v>
@@ -7935,16 +7966,16 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="225" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" ht="75" x14ac:dyDescent="0.4">
       <c r="A76" s="25">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C76" s="28" t="s">
         <v>355</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>356</v>
       </c>
       <c r="E76" s="25" t="s">
         <v>357</v>
@@ -7965,10 +7996,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C77" s="28" t="s">
         <v>358</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>359</v>
       </c>
       <c r="E77" s="25" t="s">
         <v>203</v>
@@ -7986,16 +8017,16 @@
         <v>226</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="243.75" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A78" s="25">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>362</v>
       </c>
       <c r="E78" s="25" t="s">
         <v>363</v>
@@ -8019,10 +8050,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="28" t="s">
         <v>268</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>269</v>
       </c>
       <c r="E79" s="25" t="s">
         <v>203</v>
@@ -8040,11 +8071,12 @@
         <v>79</v>
       </c>
       <c r="B80" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="D80" s="28" t="s">
-        <v>273</v>
-      </c>
+      <c r="E80" s="25"/>
       <c r="I80" s="25" t="s">
         <v>270</v>
       </c>
@@ -8058,11 +8090,12 @@
         <v>80</v>
       </c>
       <c r="B81" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="D81" s="28" t="s">
-        <v>276</v>
-      </c>
+      <c r="E81" s="25"/>
       <c r="I81" s="25" t="s">
         <v>270</v>
       </c>
@@ -8070,16 +8103,16 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" s="25">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" s="28" t="s">
         <v>277</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>278</v>
       </c>
       <c r="E82" s="25" t="s">
         <v>279</v>
@@ -8097,11 +8130,12 @@
         <v>82</v>
       </c>
       <c r="B83" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="D83" s="28" t="s">
-        <v>281</v>
-      </c>
+      <c r="E83" s="25"/>
       <c r="I83" s="25" t="s">
         <v>270</v>
       </c>
@@ -8115,11 +8149,12 @@
         <v>83</v>
       </c>
       <c r="B84" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="D84" s="28" t="s">
-        <v>283</v>
-      </c>
+      <c r="E84" s="25"/>
       <c r="I84" s="25" t="s">
         <v>270</v>
       </c>
@@ -8133,11 +8168,12 @@
         <v>84</v>
       </c>
       <c r="B85" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C85" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="D85" s="28" t="s">
-        <v>285</v>
-      </c>
+      <c r="E85" s="25"/>
       <c r="I85" s="25" t="s">
         <v>270</v>
       </c>
@@ -8151,11 +8187,12 @@
         <v>85</v>
       </c>
       <c r="B86" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C86" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="D86" s="28" t="s">
-        <v>288</v>
-      </c>
+      <c r="E86" s="25"/>
       <c r="I86" s="25" t="s">
         <v>270</v>
       </c>
@@ -8169,10 +8206,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C87" s="28" t="s">
         <v>364</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>365</v>
       </c>
       <c r="E87" s="25" t="s">
         <v>203</v>
@@ -8187,10 +8224,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="C88" s="28" t="s">
         <v>367</v>
-      </c>
-      <c r="D88" s="28" t="s">
-        <v>368</v>
       </c>
       <c r="E88" s="25" t="s">
         <v>203</v>
@@ -8205,10 +8242,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="C89" s="28" t="s">
         <v>369</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>370</v>
       </c>
       <c r="E89" s="25" t="s">
         <v>203</v>
@@ -8223,10 +8260,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C90" s="28" t="s">
         <v>371</v>
-      </c>
-      <c r="D90" s="28" t="s">
-        <v>372</v>
       </c>
       <c r="E90" s="25" t="s">
         <v>203</v>
@@ -8241,10 +8278,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C91" s="28" t="s">
         <v>373</v>
-      </c>
-      <c r="D91" s="28" t="s">
-        <v>374</v>
       </c>
       <c r="E91" s="25" t="s">
         <v>203</v>
@@ -8265,10 +8302,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="C92" s="28" t="s">
         <v>376</v>
-      </c>
-      <c r="D92" s="28" t="s">
-        <v>377</v>
       </c>
       <c r="E92" s="25" t="s">
         <v>203</v>
@@ -8289,10 +8326,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C93" s="28" t="s">
         <v>378</v>
-      </c>
-      <c r="D93" s="28" t="s">
-        <v>379</v>
       </c>
       <c r="E93" s="25" t="s">
         <v>203</v>
@@ -8313,10 +8350,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="C94" s="28" t="s">
         <v>380</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>381</v>
       </c>
       <c r="E94" s="25" t="s">
         <v>203</v>
@@ -8343,10 +8380,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="C95" s="28" t="s">
         <v>385</v>
-      </c>
-      <c r="D95" s="28" t="s">
-        <v>386</v>
       </c>
       <c r="E95" s="25" t="s">
         <v>203</v>
@@ -8373,10 +8410,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="C96" s="28" t="s">
         <v>387</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>388</v>
       </c>
       <c r="E96" s="25" t="s">
         <v>203</v>
@@ -8397,16 +8434,16 @@
         <v>382</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A97" s="25">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="C97" s="28" t="s">
         <v>389</v>
-      </c>
-      <c r="D97" s="28" t="s">
-        <v>390</v>
       </c>
       <c r="E97" s="25" t="s">
         <v>203</v>
@@ -8421,16 +8458,16 @@
         <v>391</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A98" s="25">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C98" s="28" t="s">
         <v>392</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>393</v>
       </c>
       <c r="E98" s="25" t="s">
         <v>203</v>
@@ -8445,16 +8482,16 @@
         <v>391</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A99" s="25">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C99" s="28" t="s">
         <v>394</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>395</v>
       </c>
       <c r="E99" s="25" t="s">
         <v>203</v>
@@ -8475,16 +8512,16 @@
         <v>391</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A100" s="25">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="C100" s="28" t="s">
         <v>397</v>
-      </c>
-      <c r="D100" s="28" t="s">
-        <v>398</v>
       </c>
       <c r="E100" s="25" t="s">
         <v>203</v>
@@ -8505,16 +8542,16 @@
         <v>391</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A101" s="25">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="C101" s="28" t="s">
         <v>399</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>400</v>
       </c>
       <c r="E101" s="25" t="s">
         <v>203</v>
@@ -8529,16 +8566,16 @@
         <v>391</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A102" s="25">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="C102" s="28" t="s">
         <v>401</v>
-      </c>
-      <c r="D102" s="28" t="s">
-        <v>402</v>
       </c>
       <c r="E102" s="25" t="s">
         <v>203</v>
@@ -8553,16 +8590,16 @@
         <v>391</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A103" s="25">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="C103" s="28" t="s">
         <v>403</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>404</v>
       </c>
       <c r="E103" s="25" t="s">
         <v>203</v>
@@ -8577,16 +8614,16 @@
         <v>391</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A104" s="25">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="C104" s="28" t="s">
         <v>405</v>
-      </c>
-      <c r="D104" s="28" t="s">
-        <v>406</v>
       </c>
       <c r="E104" s="25" t="s">
         <v>203</v>
@@ -8601,16 +8638,16 @@
         <v>391</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A105" s="25">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C105" s="28" t="s">
         <v>407</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>408</v>
       </c>
       <c r="E105" s="25" t="s">
         <v>203</v>
@@ -8625,16 +8662,16 @@
         <v>391</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A106" s="25">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C106" s="28" t="s">
         <v>409</v>
-      </c>
-      <c r="D106" s="28" t="s">
-        <v>410</v>
       </c>
       <c r="E106" s="25" t="s">
         <v>203</v>
@@ -8649,16 +8686,16 @@
         <v>391</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A107" s="25">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C107" s="28" t="s">
         <v>411</v>
-      </c>
-      <c r="D107" s="28" t="s">
-        <v>412</v>
       </c>
       <c r="E107" s="25" t="s">
         <v>203</v>
@@ -8673,16 +8710,16 @@
         <v>391</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A108" s="25">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="C108" s="28" t="s">
         <v>413</v>
-      </c>
-      <c r="D108" s="28" t="s">
-        <v>414</v>
       </c>
       <c r="E108" s="25" t="s">
         <v>203</v>
@@ -8697,16 +8734,16 @@
         <v>391</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A109" s="25">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="C109" s="28" t="s">
         <v>415</v>
-      </c>
-      <c r="D109" s="28" t="s">
-        <v>416</v>
       </c>
       <c r="E109" s="25" t="s">
         <v>203</v>
@@ -8721,16 +8758,16 @@
         <v>391</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A110" s="25">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="C110" s="28" t="s">
         <v>417</v>
-      </c>
-      <c r="D110" s="28" t="s">
-        <v>418</v>
       </c>
       <c r="E110" s="25" t="s">
         <v>203</v>
@@ -8751,10 +8788,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="C111" s="28" t="s">
         <v>419</v>
-      </c>
-      <c r="D111" s="28" t="s">
-        <v>420</v>
       </c>
       <c r="E111" s="25" t="s">
         <v>203</v>
@@ -8772,10 +8809,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="C112" s="28" t="s">
         <v>421</v>
-      </c>
-      <c r="D112" s="28" t="s">
-        <v>422</v>
       </c>
       <c r="E112" s="25" t="s">
         <v>203</v>
@@ -8793,10 +8830,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="C113" s="28" t="s">
         <v>423</v>
-      </c>
-      <c r="D113" s="28" t="s">
-        <v>424</v>
       </c>
       <c r="E113" s="25" t="s">
         <v>203</v>
@@ -8814,10 +8851,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="C114" s="28" t="s">
         <v>425</v>
-      </c>
-      <c r="D114" s="28" t="s">
-        <v>426</v>
       </c>
       <c r="E114" s="25" t="s">
         <v>203</v>
@@ -8835,10 +8872,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C115" s="28" t="s">
         <v>427</v>
-      </c>
-      <c r="D115" s="28" t="s">
-        <v>428</v>
       </c>
       <c r="E115" s="25" t="s">
         <v>203</v>
@@ -8856,10 +8893,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="C116" s="28" t="s">
         <v>429</v>
-      </c>
-      <c r="D116" s="28" t="s">
-        <v>430</v>
       </c>
       <c r="E116" s="25" t="s">
         <v>203</v>
@@ -8877,10 +8914,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="C117" s="28" t="s">
         <v>431</v>
-      </c>
-      <c r="D117" s="28" t="s">
-        <v>432</v>
       </c>
       <c r="E117" s="25" t="s">
         <v>203</v>
@@ -8898,10 +8935,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C118" s="28" t="s">
         <v>433</v>
-      </c>
-      <c r="D118" s="28" t="s">
-        <v>434</v>
       </c>
       <c r="E118" s="25" t="s">
         <v>203</v>
@@ -8919,10 +8956,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="C119" s="28" t="s">
         <v>435</v>
-      </c>
-      <c r="D119" s="28" t="s">
-        <v>436</v>
       </c>
       <c r="E119" s="25" t="s">
         <v>203</v>
@@ -8940,10 +8977,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="C120" s="28" t="s">
         <v>437</v>
-      </c>
-      <c r="D120" s="28" t="s">
-        <v>438</v>
       </c>
       <c r="E120" s="25" t="s">
         <v>203</v>
@@ -8967,10 +9004,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="C121" s="28" t="s">
         <v>441</v>
-      </c>
-      <c r="D121" s="28" t="s">
-        <v>442</v>
       </c>
       <c r="E121" s="25" t="s">
         <v>203</v>
@@ -8994,10 +9031,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="C122" s="28" t="s">
         <v>443</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>444</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>203</v>
@@ -9021,10 +9058,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="C123" s="28" t="s">
         <v>445</v>
-      </c>
-      <c r="D123" s="28" t="s">
-        <v>446</v>
       </c>
       <c r="E123" s="25" t="s">
         <v>203</v>
@@ -9048,10 +9085,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="C124" s="28" t="s">
         <v>447</v>
-      </c>
-      <c r="D124" s="28" t="s">
-        <v>448</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>203</v>
@@ -9075,10 +9112,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="C125" s="28" t="s">
         <v>449</v>
-      </c>
-      <c r="D125" s="28" t="s">
-        <v>450</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>203</v>
@@ -9102,10 +9139,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="C126" s="28" t="s">
         <v>451</v>
-      </c>
-      <c r="D126" s="28" t="s">
-        <v>452</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>203</v>
@@ -9129,10 +9166,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="C127" s="28" t="s">
         <v>453</v>
-      </c>
-      <c r="D127" s="28" t="s">
-        <v>454</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>203</v>
@@ -9156,10 +9193,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="C128" s="28" t="s">
         <v>455</v>
-      </c>
-      <c r="D128" s="28" t="s">
-        <v>456</v>
       </c>
       <c r="E128" s="25" t="s">
         <v>203</v>
@@ -9183,10 +9220,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="C129" s="28" t="s">
         <v>457</v>
-      </c>
-      <c r="D129" s="28" t="s">
-        <v>458</v>
       </c>
       <c r="E129" s="25" t="s">
         <v>203</v>
@@ -9210,10 +9247,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="C130" s="28" t="s">
         <v>459</v>
-      </c>
-      <c r="D130" s="28" t="s">
-        <v>460</v>
       </c>
       <c r="E130" s="25" t="s">
         <v>203</v>
@@ -9237,10 +9274,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="C131" s="28" t="s">
         <v>461</v>
-      </c>
-      <c r="D131" s="28" t="s">
-        <v>462</v>
       </c>
       <c r="E131" s="25" t="s">
         <v>203</v>
@@ -9264,10 +9301,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="C132" s="28" t="s">
         <v>463</v>
-      </c>
-      <c r="D132" s="28" t="s">
-        <v>464</v>
       </c>
       <c r="E132" s="25" t="s">
         <v>203</v>
@@ -9297,10 +9334,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="C133" s="28" t="s">
         <v>466</v>
-      </c>
-      <c r="D133" s="28" t="s">
-        <v>467</v>
       </c>
       <c r="E133" s="25" t="s">
         <v>203</v>
@@ -9330,10 +9367,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="C134" s="28" t="s">
         <v>468</v>
-      </c>
-      <c r="D134" s="28" t="s">
-        <v>469</v>
       </c>
       <c r="E134" s="25" t="s">
         <v>203</v>
@@ -9357,10 +9394,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C135" s="28" t="s">
         <v>470</v>
-      </c>
-      <c r="D135" s="28" t="s">
-        <v>471</v>
       </c>
       <c r="E135" s="25" t="s">
         <v>203</v>
@@ -9384,10 +9421,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="C136" s="28" t="s">
         <v>472</v>
-      </c>
-      <c r="D136" s="28" t="s">
-        <v>473</v>
       </c>
       <c r="E136" s="25" t="s">
         <v>203</v>
@@ -9414,10 +9451,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C137" s="28" t="s">
         <v>476</v>
-      </c>
-      <c r="D137" s="28" t="s">
-        <v>477</v>
       </c>
       <c r="E137" s="25" t="s">
         <v>203</v>
@@ -9438,16 +9475,16 @@
         <v>475</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="75" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A138" s="25">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B138" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="C138" s="28" t="s">
         <v>478</v>
-      </c>
-      <c r="D138" s="28" t="s">
-        <v>479</v>
       </c>
       <c r="E138" s="25" t="s">
         <v>480</v>
@@ -9462,16 +9499,16 @@
         <v>481</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" s="25">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B139" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="C139" s="28" t="s">
         <v>482</v>
-      </c>
-      <c r="D139" s="28" t="s">
-        <v>483</v>
       </c>
       <c r="E139" s="25" t="s">
         <v>484</v>
@@ -9486,16 +9523,16 @@
         <v>481</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A140" s="25">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B140" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="C140" s="28" t="s">
         <v>485</v>
-      </c>
-      <c r="D140" s="28" t="s">
-        <v>486</v>
       </c>
       <c r="E140" s="25" t="s">
         <v>487</v>
@@ -9510,16 +9547,16 @@
         <v>481</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="75" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A141" s="25">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B141" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="C141" s="28" t="s">
         <v>488</v>
-      </c>
-      <c r="D141" s="28" t="s">
-        <v>489</v>
       </c>
       <c r="E141" s="25" t="s">
         <v>490</v>
@@ -9534,16 +9571,16 @@
         <v>481</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="75" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A142" s="25">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B142" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="C142" s="28" t="s">
         <v>491</v>
-      </c>
-      <c r="D142" s="28" t="s">
-        <v>492</v>
       </c>
       <c r="E142" s="25" t="s">
         <v>493</v>
@@ -9558,16 +9595,16 @@
         <v>481</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="300" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:14" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A143" s="25">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B143" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="C143" s="28" t="s">
         <v>494</v>
-      </c>
-      <c r="D143" s="28" t="s">
-        <v>495</v>
       </c>
       <c r="E143" s="25" t="s">
         <v>496</v>
@@ -9588,10 +9625,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="C144" s="28" t="s">
         <v>497</v>
-      </c>
-      <c r="D144" s="28" t="s">
-        <v>498</v>
       </c>
       <c r="E144" s="25" t="s">
         <v>203</v>
@@ -9615,10 +9652,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="C145" s="28" t="s">
         <v>499</v>
-      </c>
-      <c r="D145" s="28" t="s">
-        <v>500</v>
       </c>
       <c r="E145" s="25" t="s">
         <v>203</v>
@@ -9642,10 +9679,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="C146" s="28" t="s">
         <v>501</v>
-      </c>
-      <c r="D146" s="28" t="s">
-        <v>502</v>
       </c>
       <c r="E146" s="25" t="s">
         <v>203</v>
@@ -9669,10 +9706,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="C147" s="28" t="s">
         <v>503</v>
-      </c>
-      <c r="D147" s="28" t="s">
-        <v>504</v>
       </c>
       <c r="E147" s="25" t="s">
         <v>203</v>
@@ -9696,10 +9733,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="C148" s="28" t="s">
         <v>506</v>
-      </c>
-      <c r="D148" s="28" t="s">
-        <v>507</v>
       </c>
       <c r="E148" s="25" t="s">
         <v>203</v>
@@ -9717,10 +9754,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="C149" s="28" t="s">
         <v>510</v>
-      </c>
-      <c r="D149" s="28" t="s">
-        <v>511</v>
       </c>
       <c r="E149" s="25" t="s">
         <v>203</v>
@@ -9738,10 +9775,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="C150" s="28" t="s">
         <v>512</v>
-      </c>
-      <c r="D150" s="28" t="s">
-        <v>513</v>
       </c>
       <c r="E150" s="25" t="s">
         <v>203</v>
@@ -9756,10 +9793,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="C151" s="28" t="s">
         <v>514</v>
-      </c>
-      <c r="D151" s="28" t="s">
-        <v>515</v>
       </c>
       <c r="E151" s="25" t="s">
         <v>203</v>
@@ -9774,11 +9811,12 @@
         <v>151</v>
       </c>
       <c r="B152" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="C152" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="D152" s="28" t="s">
-        <v>517</v>
-      </c>
+      <c r="E152" s="25"/>
       <c r="F152" s="25" t="s">
         <v>518</v>
       </c>
@@ -9792,11 +9830,12 @@
         <v>152</v>
       </c>
       <c r="B153" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="C153" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="D153" s="28" t="s">
-        <v>521</v>
-      </c>
+      <c r="E153" s="25"/>
       <c r="G153" s="25" t="s">
         <v>518</v>
       </c>
@@ -9810,11 +9849,12 @@
         <v>153</v>
       </c>
       <c r="B154" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="C154" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="D154" s="28" t="s">
-        <v>523</v>
-      </c>
+      <c r="E154" s="25"/>
       <c r="G154" s="25" t="s">
         <v>518</v>
       </c>
@@ -9828,11 +9868,12 @@
         <v>154</v>
       </c>
       <c r="B155" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="C155" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="D155" s="28" t="s">
-        <v>525</v>
-      </c>
+      <c r="E155" s="25"/>
       <c r="G155" s="25" t="s">
         <v>518</v>
       </c>
@@ -9846,11 +9887,12 @@
         <v>155</v>
       </c>
       <c r="B156" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="C156" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="D156" s="28" t="s">
-        <v>527</v>
-      </c>
+      <c r="E156" s="25"/>
       <c r="F156" s="25" t="s">
         <v>528</v>
       </c>
@@ -9864,11 +9906,12 @@
         <v>156</v>
       </c>
       <c r="B157" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="C157" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="D157" s="28" t="s">
-        <v>530</v>
-      </c>
+      <c r="E157" s="25"/>
       <c r="G157" s="25" t="s">
         <v>528</v>
       </c>
@@ -9882,11 +9925,12 @@
         <v>157</v>
       </c>
       <c r="B158" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="C158" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="D158" s="28" t="s">
-        <v>532</v>
-      </c>
+      <c r="E158" s="25"/>
       <c r="I158" s="25" t="s">
         <v>519</v>
       </c>
@@ -9900,11 +9944,12 @@
         <v>158</v>
       </c>
       <c r="B159" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="C159" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="D159" s="28" t="s">
-        <v>535</v>
-      </c>
+      <c r="E159" s="25"/>
       <c r="F159" s="25" t="s">
         <v>536</v>
       </c>
@@ -9912,16 +9957,16 @@
         <v>519</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A160" s="25">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B160" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="C160" s="28" t="s">
         <v>537</v>
-      </c>
-      <c r="D160" s="28" t="s">
-        <v>538</v>
       </c>
       <c r="E160" s="25" t="s">
         <v>539</v>
@@ -9933,16 +9978,16 @@
         <v>519</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A161" s="25">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="B161" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="C161" s="28" t="s">
         <v>540</v>
-      </c>
-      <c r="D161" s="28" t="s">
-        <v>541</v>
       </c>
       <c r="E161" s="25" t="s">
         <v>542</v>
@@ -9960,11 +10005,12 @@
         <v>161</v>
       </c>
       <c r="B162" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="C162" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="D162" s="28" t="s">
-        <v>544</v>
-      </c>
+      <c r="E162" s="25"/>
       <c r="G162" s="25" t="s">
         <v>536</v>
       </c>
@@ -9978,11 +10024,12 @@
         <v>162</v>
       </c>
       <c r="B163" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="C163" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="D163" s="28" t="s">
-        <v>546</v>
-      </c>
+      <c r="E163" s="25"/>
       <c r="I163" s="25" t="s">
         <v>547</v>
       </c>
@@ -9996,11 +10043,12 @@
         <v>163</v>
       </c>
       <c r="B164" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="C164" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="D164" s="28" t="s">
-        <v>550</v>
-      </c>
+      <c r="E164" s="25"/>
       <c r="I164" s="25" t="s">
         <v>547</v>
       </c>
@@ -10011,12 +10059,12 @@
         <v>548</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A165" s="25">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="B165" s="28" t="s">
+      <c r="C165" s="28" t="s">
         <v>551</v>
       </c>
       <c r="E165" s="25" t="s">
@@ -10038,11 +10086,12 @@
         <v>165</v>
       </c>
       <c r="B166" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="C166" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="D166" s="28" t="s">
-        <v>554</v>
-      </c>
+      <c r="E166" s="25"/>
       <c r="I166" s="25" t="s">
         <v>547</v>
       </c>
@@ -10059,11 +10108,12 @@
         <v>166</v>
       </c>
       <c r="B167" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="C167" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="D167" s="28" t="s">
-        <v>556</v>
-      </c>
+      <c r="E167" s="25"/>
       <c r="I167" s="25" t="s">
         <v>547</v>
       </c>
@@ -10080,11 +10130,12 @@
         <v>167</v>
       </c>
       <c r="B168" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="C168" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="D168" s="28" t="s">
-        <v>558</v>
-      </c>
+      <c r="E168" s="25"/>
       <c r="I168" s="25" t="s">
         <v>547</v>
       </c>
@@ -10095,12 +10146,12 @@
         <v>548</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A169" s="25">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="B169" s="28" t="s">
+      <c r="C169" s="28" t="s">
         <v>559</v>
       </c>
       <c r="E169" s="25" t="s">
@@ -10122,11 +10173,12 @@
         <v>169</v>
       </c>
       <c r="B170" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="C170" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="D170" s="28" t="s">
-        <v>562</v>
-      </c>
+      <c r="E170" s="25"/>
       <c r="I170" s="25" t="s">
         <v>547</v>
       </c>
@@ -10143,11 +10195,12 @@
         <v>170</v>
       </c>
       <c r="B171" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="C171" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="D171" s="28" t="s">
-        <v>564</v>
-      </c>
+      <c r="E171" s="25"/>
       <c r="I171" s="25" t="s">
         <v>547</v>
       </c>
@@ -10164,11 +10217,12 @@
         <v>171</v>
       </c>
       <c r="B172" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="C172" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="D172" s="28" t="s">
-        <v>566</v>
-      </c>
+      <c r="E172" s="25"/>
       <c r="I172" s="25" t="s">
         <v>547</v>
       </c>
@@ -10185,11 +10239,12 @@
         <v>172</v>
       </c>
       <c r="B173" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="C173" s="28" t="s">
         <v>567</v>
       </c>
-      <c r="D173" s="28" t="s">
-        <v>568</v>
-      </c>
+      <c r="E173" s="25"/>
       <c r="I173" s="25" t="s">
         <v>547</v>
       </c>
@@ -10206,11 +10261,12 @@
         <v>173</v>
       </c>
       <c r="B174" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="C174" s="28" t="s">
         <v>569</v>
       </c>
-      <c r="D174" s="28" t="s">
-        <v>570</v>
-      </c>
+      <c r="E174" s="25"/>
       <c r="I174" s="25" t="s">
         <v>547</v>
       </c>
@@ -10227,11 +10283,12 @@
         <v>174</v>
       </c>
       <c r="B175" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="C175" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="D175" s="28" t="s">
-        <v>572</v>
-      </c>
+      <c r="E175" s="25"/>
       <c r="I175" s="25" t="s">
         <v>547</v>
       </c>
@@ -10248,11 +10305,12 @@
         <v>175</v>
       </c>
       <c r="B176" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C176" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="D176" s="28" t="s">
-        <v>574</v>
-      </c>
+      <c r="E176" s="25"/>
       <c r="I176" s="25" t="s">
         <v>547</v>
       </c>
@@ -10269,11 +10327,12 @@
         <v>176</v>
       </c>
       <c r="B177" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="C177" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="D177" s="28" t="s">
-        <v>576</v>
-      </c>
+      <c r="E177" s="25"/>
       <c r="I177" s="25" t="s">
         <v>547</v>
       </c>
@@ -10290,11 +10349,12 @@
         <v>177</v>
       </c>
       <c r="B178" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="C178" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="D178" s="28" t="s">
-        <v>578</v>
-      </c>
+      <c r="E178" s="25"/>
       <c r="I178" s="25" t="s">
         <v>547</v>
       </c>
@@ -10311,11 +10371,12 @@
         <v>178</v>
       </c>
       <c r="B179" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="C179" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="D179" s="28" t="s">
-        <v>580</v>
-      </c>
+      <c r="E179" s="25"/>
       <c r="I179" s="25" t="s">
         <v>547</v>
       </c>
@@ -10332,11 +10393,12 @@
         <v>179</v>
       </c>
       <c r="B180" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="C180" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="D180" s="28" t="s">
-        <v>582</v>
-      </c>
+      <c r="E180" s="25"/>
       <c r="I180" s="25" t="s">
         <v>547</v>
       </c>
@@ -10353,11 +10415,12 @@
         <v>180</v>
       </c>
       <c r="B181" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="C181" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="D181" s="28" t="s">
-        <v>584</v>
-      </c>
+      <c r="E181" s="25"/>
       <c r="I181" s="25" t="s">
         <v>547</v>
       </c>
@@ -10374,11 +10437,12 @@
         <v>181</v>
       </c>
       <c r="B182" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="C182" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="D182" s="28" t="s">
-        <v>586</v>
-      </c>
+      <c r="E182" s="25"/>
       <c r="I182" s="25" t="s">
         <v>547</v>
       </c>
@@ -10395,11 +10459,12 @@
         <v>182</v>
       </c>
       <c r="B183" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="C183" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="D183" s="28" t="s">
-        <v>588</v>
-      </c>
+      <c r="E183" s="25"/>
       <c r="I183" s="25" t="s">
         <v>547</v>
       </c>
@@ -10416,11 +10481,12 @@
         <v>183</v>
       </c>
       <c r="B184" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="C184" s="28" t="s">
         <v>590</v>
       </c>
-      <c r="D184" s="28" t="s">
-        <v>591</v>
-      </c>
+      <c r="E184" s="25"/>
       <c r="I184" s="25" t="s">
         <v>547</v>
       </c>
@@ -10437,11 +10503,12 @@
         <v>184</v>
       </c>
       <c r="B185" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="C185" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="D185" s="28" t="s">
-        <v>593</v>
-      </c>
+      <c r="E185" s="25"/>
       <c r="I185" s="25" t="s">
         <v>547</v>
       </c>
@@ -10458,11 +10525,12 @@
         <v>185</v>
       </c>
       <c r="B186" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="C186" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="D186" s="28" t="s">
-        <v>595</v>
-      </c>
+      <c r="E186" s="25"/>
       <c r="I186" s="25" t="s">
         <v>547</v>
       </c>
@@ -10479,11 +10547,12 @@
         <v>186</v>
       </c>
       <c r="B187" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="C187" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="D187" s="28" t="s">
-        <v>597</v>
-      </c>
+      <c r="E187" s="25"/>
       <c r="I187" s="25" t="s">
         <v>547</v>
       </c>
@@ -10500,11 +10569,12 @@
         <v>187</v>
       </c>
       <c r="B188" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="C188" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="D188" s="28" t="s">
-        <v>599</v>
-      </c>
+      <c r="E188" s="25"/>
       <c r="I188" s="25" t="s">
         <v>547</v>
       </c>
@@ -10521,11 +10591,12 @@
         <v>188</v>
       </c>
       <c r="B189" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="C189" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="D189" s="28" t="s">
-        <v>601</v>
-      </c>
+      <c r="E189" s="25"/>
       <c r="I189" s="25" t="s">
         <v>547</v>
       </c>
@@ -10542,10 +10613,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="C190" s="28" t="s">
         <v>602</v>
-      </c>
-      <c r="D190" s="28" t="s">
-        <v>603</v>
       </c>
       <c r="E190" s="25" t="s">
         <v>203</v>
@@ -10560,10 +10631,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="C191" s="28" t="s">
         <v>605</v>
-      </c>
-      <c r="D191" s="28" t="s">
-        <v>606</v>
       </c>
       <c r="E191" s="25" t="s">
         <v>203</v>
@@ -10578,10 +10649,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="C192" s="28" t="s">
         <v>607</v>
-      </c>
-      <c r="D192" s="28" t="s">
-        <v>608</v>
       </c>
       <c r="E192" s="25" t="s">
         <v>203</v>
@@ -10596,10 +10667,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="C193" s="28" t="s">
         <v>609</v>
-      </c>
-      <c r="D193" s="28" t="s">
-        <v>610</v>
       </c>
       <c r="E193" s="25" t="s">
         <v>203</v>
@@ -10614,11 +10685,12 @@
         <v>193</v>
       </c>
       <c r="B194" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="C194" s="28" t="s">
         <v>611</v>
       </c>
-      <c r="D194" s="28" t="s">
-        <v>612</v>
-      </c>
+      <c r="E194" s="25"/>
       <c r="I194" s="25" t="s">
         <v>613</v>
       </c>
@@ -10632,11 +10704,12 @@
         <v>194</v>
       </c>
       <c r="B195" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="C195" s="28" t="s">
         <v>614</v>
       </c>
-      <c r="D195" s="28" t="s">
-        <v>615</v>
-      </c>
+      <c r="E195" s="25"/>
       <c r="I195" s="25" t="s">
         <v>613</v>
       </c>
@@ -10650,11 +10723,12 @@
         <v>195</v>
       </c>
       <c r="B196" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="C196" s="28" t="s">
         <v>616</v>
       </c>
-      <c r="D196" s="28" t="s">
-        <v>617</v>
-      </c>
+      <c r="E196" s="25"/>
       <c r="I196" s="25" t="s">
         <v>613</v>
       </c>
@@ -10668,11 +10742,12 @@
         <v>196</v>
       </c>
       <c r="B197" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="C197" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="D197" s="28" t="s">
-        <v>619</v>
-      </c>
+      <c r="E197" s="25"/>
       <c r="I197" s="25" t="s">
         <v>613</v>
       </c>
@@ -10686,11 +10761,12 @@
         <v>197</v>
       </c>
       <c r="B198" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="C198" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="D198" s="28" t="s">
-        <v>621</v>
-      </c>
+      <c r="E198" s="25"/>
       <c r="I198" s="25" t="s">
         <v>613</v>
       </c>
@@ -10704,10 +10780,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="C199" s="28" t="s">
         <v>622</v>
-      </c>
-      <c r="D199" s="28" t="s">
-        <v>623</v>
       </c>
       <c r="E199" s="25" t="s">
         <v>203</v>
@@ -10725,10 +10801,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="C200" s="28" t="s">
         <v>626</v>
-      </c>
-      <c r="D200" s="28" t="s">
-        <v>627</v>
       </c>
       <c r="E200" s="25" t="s">
         <v>203</v>
@@ -10746,10 +10822,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="C201" s="28" t="s">
         <v>628</v>
-      </c>
-      <c r="D201" s="28" t="s">
-        <v>629</v>
       </c>
       <c r="E201" s="25" t="s">
         <v>203</v>
@@ -10767,10 +10843,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="C202" s="28" t="s">
         <v>630</v>
-      </c>
-      <c r="D202" s="28" t="s">
-        <v>631</v>
       </c>
       <c r="E202" s="25" t="s">
         <v>203</v>
@@ -10788,10 +10864,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="C203" s="28" t="s">
         <v>632</v>
-      </c>
-      <c r="D203" s="28" t="s">
-        <v>633</v>
       </c>
       <c r="E203" s="25" t="s">
         <v>203</v>
@@ -10812,10 +10888,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="C204" s="28" t="s">
         <v>634</v>
-      </c>
-      <c r="D204" s="28" t="s">
-        <v>635</v>
       </c>
       <c r="E204" s="25" t="s">
         <v>203</v>
@@ -10833,10 +10909,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="C205" s="28" t="s">
         <v>636</v>
-      </c>
-      <c r="D205" s="28" t="s">
-        <v>637</v>
       </c>
       <c r="E205" s="25" t="s">
         <v>203</v>
@@ -10860,10 +10936,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="C206" s="28" t="s">
         <v>639</v>
-      </c>
-      <c r="D206" s="28" t="s">
-        <v>640</v>
       </c>
       <c r="E206" s="25" t="s">
         <v>203</v>
@@ -10875,16 +10951,16 @@
         <v>641</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="168.75" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A207" s="25">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="B207" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="C207" s="28" t="s">
         <v>642</v>
-      </c>
-      <c r="D207" s="28" t="s">
-        <v>643</v>
       </c>
       <c r="E207" s="25" t="s">
         <v>644</v>
@@ -10902,16 +10978,16 @@
         <v>227</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:15" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A208" s="25">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="B208" s="28" t="s">
+        <v>646</v>
+      </c>
+      <c r="C208" s="28" t="s">
         <v>645</v>
-      </c>
-      <c r="D208" s="28" t="s">
-        <v>646</v>
       </c>
       <c r="E208" s="25" t="s">
         <v>647</v>
@@ -10938,10 +11014,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="C209" s="28" t="s">
         <v>649</v>
-      </c>
-      <c r="D209" s="28" t="s">
-        <v>650</v>
       </c>
       <c r="E209" s="25" t="s">
         <v>203</v>
@@ -10962,16 +11038,16 @@
         <v>648</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:15" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A210" s="25">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="B210" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="C210" s="28" t="s">
         <v>651</v>
-      </c>
-      <c r="D210" s="28" t="s">
-        <v>652</v>
       </c>
       <c r="E210" s="25" t="s">
         <v>653</v>
@@ -10998,10 +11074,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="C211" s="28" t="s">
         <v>655</v>
-      </c>
-      <c r="D211" s="28" t="s">
-        <v>656</v>
       </c>
       <c r="E211" s="25" t="s">
         <v>203</v>
@@ -11022,16 +11098,16 @@
         <v>654</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A212" s="25">
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="B212" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="C212" s="28" t="s">
         <v>657</v>
-      </c>
-      <c r="D212" s="28" t="s">
-        <v>658</v>
       </c>
       <c r="E212" s="25" t="s">
         <v>659</v>
@@ -11058,10 +11134,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="C213" s="28" t="s">
         <v>660</v>
-      </c>
-      <c r="D213" s="28" t="s">
-        <v>661</v>
       </c>
       <c r="E213" s="25" t="s">
         <v>203</v>
@@ -11088,10 +11164,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="C214" s="28" t="s">
         <v>663</v>
-      </c>
-      <c r="D214" s="28" t="s">
-        <v>664</v>
       </c>
       <c r="E214" s="25" t="s">
         <v>203</v>
@@ -11118,10 +11194,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="28" t="s">
+        <v>666</v>
+      </c>
+      <c r="C215" s="28" t="s">
         <v>665</v>
-      </c>
-      <c r="D215" s="28" t="s">
-        <v>666</v>
       </c>
       <c r="E215" s="25" t="s">
         <v>203</v>
@@ -11142,16 +11218,16 @@
         <v>662</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="337.5" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:15" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A216" s="25">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="B216" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="C216" s="28" t="s">
         <v>667</v>
-      </c>
-      <c r="D216" s="28" t="s">
-        <v>668</v>
       </c>
       <c r="E216" s="25" t="s">
         <v>669</v>
@@ -11169,16 +11245,16 @@
         <v>218</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A217" s="25">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="B217" s="28" t="s">
+        <v>671</v>
+      </c>
+      <c r="C217" s="28" t="s">
         <v>670</v>
-      </c>
-      <c r="D217" s="28" t="s">
-        <v>671</v>
       </c>
       <c r="E217" s="25" t="s">
         <v>672</v>
@@ -11196,16 +11272,16 @@
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A218" s="25">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="B218" s="28" t="s">
+        <v>674</v>
+      </c>
+      <c r="C218" s="28" t="s">
         <v>673</v>
-      </c>
-      <c r="D218" s="28" t="s">
-        <v>674</v>
       </c>
       <c r="E218" s="25" t="s">
         <v>675</v>
@@ -11229,11 +11305,12 @@
         <v>218</v>
       </c>
       <c r="B219" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="C219" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="D219" s="28" t="s">
-        <v>679</v>
-      </c>
+      <c r="E219" s="25"/>
       <c r="I219" s="25" t="s">
         <v>638</v>
       </c>
@@ -11247,11 +11324,12 @@
         <v>219</v>
       </c>
       <c r="B220" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="C220" s="28" t="s">
         <v>680</v>
       </c>
-      <c r="D220" s="28" t="s">
-        <v>681</v>
-      </c>
+      <c r="E220" s="25"/>
       <c r="I220" s="25" t="s">
         <v>638</v>
       </c>
@@ -11265,11 +11343,12 @@
         <v>220</v>
       </c>
       <c r="B221" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="C221" s="28" t="s">
         <v>682</v>
       </c>
-      <c r="D221" s="28" t="s">
-        <v>683</v>
-      </c>
+      <c r="E221" s="25"/>
       <c r="I221" s="25" t="s">
         <v>638</v>
       </c>
@@ -11283,11 +11362,12 @@
         <v>221</v>
       </c>
       <c r="B222" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="C222" s="28" t="s">
         <v>684</v>
       </c>
-      <c r="D222" s="28" t="s">
-        <v>685</v>
-      </c>
+      <c r="E222" s="25"/>
       <c r="I222" s="25" t="s">
         <v>638</v>
       </c>
@@ -11301,11 +11381,12 @@
         <v>222</v>
       </c>
       <c r="B223" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="C223" s="28" t="s">
         <v>686</v>
       </c>
-      <c r="D223" s="28" t="s">
-        <v>687</v>
-      </c>
+      <c r="E223" s="25"/>
       <c r="I223" s="25" t="s">
         <v>638</v>
       </c>
@@ -11319,11 +11400,12 @@
         <v>223</v>
       </c>
       <c r="B224" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="C224" s="28" t="s">
         <v>688</v>
       </c>
-      <c r="D224" s="28" t="s">
-        <v>689</v>
-      </c>
+      <c r="E224" s="25"/>
       <c r="I224" s="25" t="s">
         <v>638</v>
       </c>
@@ -11337,11 +11419,12 @@
         <v>224</v>
       </c>
       <c r="B225" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="C225" s="28" t="s">
         <v>690</v>
       </c>
-      <c r="D225" s="28" t="s">
-        <v>691</v>
-      </c>
+      <c r="E225" s="25"/>
       <c r="I225" s="25" t="s">
         <v>638</v>
       </c>
@@ -11355,11 +11438,12 @@
         <v>225</v>
       </c>
       <c r="B226" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="C226" s="28" t="s">
         <v>692</v>
       </c>
-      <c r="D226" s="28" t="s">
-        <v>693</v>
-      </c>
+      <c r="E226" s="25"/>
       <c r="I226" s="25" t="s">
         <v>638</v>
       </c>
@@ -11373,11 +11457,12 @@
         <v>226</v>
       </c>
       <c r="B227" s="28" t="s">
+        <v>695</v>
+      </c>
+      <c r="C227" s="28" t="s">
         <v>694</v>
       </c>
-      <c r="D227" s="28" t="s">
-        <v>695</v>
-      </c>
+      <c r="E227" s="25"/>
       <c r="I227" s="25" t="s">
         <v>638</v>
       </c>
@@ -11391,11 +11476,12 @@
         <v>227</v>
       </c>
       <c r="B228" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="C228" s="28" t="s">
         <v>696</v>
       </c>
-      <c r="D228" s="28" t="s">
-        <v>697</v>
-      </c>
+      <c r="E228" s="25"/>
       <c r="I228" s="25" t="s">
         <v>638</v>
       </c>
@@ -11409,11 +11495,12 @@
         <v>228</v>
       </c>
       <c r="B229" s="28" t="s">
+        <v>699</v>
+      </c>
+      <c r="C229" s="28" t="s">
         <v>698</v>
       </c>
-      <c r="D229" s="28" t="s">
-        <v>699</v>
-      </c>
+      <c r="E229" s="25"/>
       <c r="I229" s="25" t="s">
         <v>638</v>
       </c>
@@ -11427,11 +11514,12 @@
         <v>229</v>
       </c>
       <c r="B230" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="C230" s="28" t="s">
         <v>700</v>
       </c>
-      <c r="D230" s="28" t="s">
-        <v>701</v>
-      </c>
+      <c r="E230" s="25"/>
       <c r="I230" s="25" t="s">
         <v>638</v>
       </c>
@@ -11439,16 +11527,16 @@
         <v>185</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A231" s="25">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="B231" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="C231" s="28" t="s">
         <v>702</v>
-      </c>
-      <c r="D231" s="28" t="s">
-        <v>703</v>
       </c>
       <c r="E231" s="25" t="s">
         <v>704</v>
@@ -11460,16 +11548,16 @@
         <v>185</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A232" s="25">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="B232" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="C232" s="28" t="s">
         <v>705</v>
-      </c>
-      <c r="D232" s="28" t="s">
-        <v>706</v>
       </c>
       <c r="E232" s="25" t="s">
         <v>707</v>
@@ -11487,11 +11575,12 @@
         <v>232</v>
       </c>
       <c r="B233" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="C233" s="28" t="s">
         <v>708</v>
       </c>
-      <c r="D233" s="28" t="s">
-        <v>709</v>
-      </c>
+      <c r="E233" s="25"/>
       <c r="F233" s="25" t="s">
         <v>710</v>
       </c>
@@ -11511,11 +11600,12 @@
         <v>233</v>
       </c>
       <c r="B234" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="C234" s="28" t="s">
         <v>712</v>
       </c>
-      <c r="D234" s="28" t="s">
-        <v>713</v>
-      </c>
+      <c r="E234" s="25"/>
       <c r="G234" s="25" t="s">
         <v>710</v>
       </c>
@@ -11535,11 +11625,12 @@
         <v>234</v>
       </c>
       <c r="B235" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="C235" s="28" t="s">
         <v>714</v>
       </c>
-      <c r="D235" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="E235" s="25"/>
       <c r="G235" s="25" t="s">
         <v>710</v>
       </c>
@@ -11559,11 +11650,12 @@
         <v>235</v>
       </c>
       <c r="B236" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="C236" s="28" t="s">
         <v>716</v>
       </c>
-      <c r="D236" s="28" t="s">
-        <v>717</v>
-      </c>
+      <c r="E236" s="25"/>
       <c r="G236" s="25" t="s">
         <v>710</v>
       </c>
@@ -11583,11 +11675,12 @@
         <v>236</v>
       </c>
       <c r="B237" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="C237" s="28" t="s">
         <v>718</v>
       </c>
-      <c r="D237" s="28" t="s">
-        <v>719</v>
-      </c>
+      <c r="E237" s="25"/>
       <c r="G237" s="25" t="s">
         <v>710</v>
       </c>
@@ -11607,11 +11700,12 @@
         <v>237</v>
       </c>
       <c r="B238" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="C238" s="28" t="s">
         <v>720</v>
       </c>
-      <c r="D238" s="28" t="s">
-        <v>721</v>
-      </c>
+      <c r="E238" s="25"/>
       <c r="G238" s="25" t="s">
         <v>710</v>
       </c>
@@ -11631,11 +11725,12 @@
         <v>238</v>
       </c>
       <c r="B239" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="C239" s="28" t="s">
         <v>763</v>
       </c>
-      <c r="D239" s="28" t="s">
-        <v>764</v>
-      </c>
+      <c r="E239" s="25"/>
       <c r="I239" s="25" t="s">
         <v>638</v>
       </c>
@@ -11652,10 +11747,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="C240" s="28" t="s">
         <v>722</v>
-      </c>
-      <c r="D240" s="28" t="s">
-        <v>723</v>
       </c>
       <c r="E240" s="25" t="s">
         <v>203</v>
@@ -11673,10 +11768,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="C241" s="28" t="s">
         <v>725</v>
-      </c>
-      <c r="D241" s="28" t="s">
-        <v>726</v>
       </c>
       <c r="E241" s="25" t="s">
         <v>203</v>
@@ -11697,10 +11792,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C242" s="28" t="s">
         <v>727</v>
-      </c>
-      <c r="D242" s="28" t="s">
-        <v>728</v>
       </c>
       <c r="E242" s="25" t="s">
         <v>203</v>
@@ -11721,10 +11816,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="C243" s="28" t="s">
         <v>729</v>
-      </c>
-      <c r="D243" s="28" t="s">
-        <v>730</v>
       </c>
       <c r="E243" s="25" t="s">
         <v>203</v>
@@ -11745,10 +11840,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="C244" s="28" t="s">
         <v>731</v>
-      </c>
-      <c r="D244" s="28" t="s">
-        <v>732</v>
       </c>
       <c r="E244" s="25" t="s">
         <v>203</v>
@@ -11769,10 +11864,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="C245" s="28" t="s">
         <v>733</v>
-      </c>
-      <c r="D245" s="28" t="s">
-        <v>734</v>
       </c>
       <c r="E245" s="25" t="s">
         <v>203</v>
@@ -11793,10 +11888,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="28" t="s">
+        <v>736</v>
+      </c>
+      <c r="C246" s="28" t="s">
         <v>735</v>
-      </c>
-      <c r="D246" s="28" t="s">
-        <v>736</v>
       </c>
       <c r="E246" s="25" t="s">
         <v>203</v>
@@ -11817,10 +11912,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="28" t="s">
+        <v>738</v>
+      </c>
+      <c r="C247" s="28" t="s">
         <v>737</v>
-      </c>
-      <c r="D247" s="28" t="s">
-        <v>738</v>
       </c>
       <c r="E247" s="25" t="s">
         <v>203</v>
@@ -11838,11 +11933,12 @@
         <v>247</v>
       </c>
       <c r="B248" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="C248" s="28" t="s">
         <v>739</v>
       </c>
-      <c r="D248" s="28" t="s">
-        <v>740</v>
-      </c>
+      <c r="E248" s="25"/>
       <c r="I248" s="25" t="s">
         <v>724</v>
       </c>
@@ -11855,12 +11951,13 @@
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
-      <c r="B249" s="28" t="s">
+      <c r="B249" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="C249" s="28" t="s">
         <v>741</v>
       </c>
-      <c r="D249" s="29" t="s">
-        <v>773</v>
-      </c>
+      <c r="E249" s="25"/>
       <c r="I249" s="25" t="s">
         <v>724</v>
       </c>
@@ -11874,11 +11971,12 @@
         <v>249</v>
       </c>
       <c r="B250" s="28" t="s">
+        <v>743</v>
+      </c>
+      <c r="C250" s="28" t="s">
         <v>742</v>
       </c>
-      <c r="D250" s="28" t="s">
-        <v>743</v>
-      </c>
+      <c r="E250" s="25"/>
       <c r="I250" s="25" t="s">
         <v>724</v>
       </c>
@@ -11892,10 +11990,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="C251" s="28" t="s">
         <v>744</v>
-      </c>
-      <c r="D251" s="28" t="s">
-        <v>745</v>
       </c>
       <c r="E251" s="25" t="s">
         <v>203</v>
@@ -11910,10 +12008,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="C252" s="28" t="s">
         <v>747</v>
-      </c>
-      <c r="D252" s="28" t="s">
-        <v>748</v>
       </c>
       <c r="E252" s="25" t="s">
         <v>203</v>
@@ -11928,10 +12026,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="C253" s="28" t="s">
         <v>749</v>
-      </c>
-      <c r="D253" s="28" t="s">
-        <v>750</v>
       </c>
       <c r="E253" s="25" t="s">
         <v>203</v>
@@ -11946,11 +12044,12 @@
         <v>253</v>
       </c>
       <c r="B254" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="C254" s="28" t="s">
         <v>751</v>
       </c>
-      <c r="D254" s="28" t="s">
-        <v>752</v>
-      </c>
+      <c r="E254" s="25"/>
       <c r="I254" s="25" t="s">
         <v>746</v>
       </c>
@@ -11961,11 +12060,12 @@
         <v>254</v>
       </c>
       <c r="B255" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="C255" s="28" t="s">
         <v>753</v>
       </c>
-      <c r="D255" s="28" t="s">
-        <v>754</v>
-      </c>
+      <c r="E255" s="25"/>
       <c r="I255" s="25" t="s">
         <v>746</v>
       </c>
@@ -11976,10 +12076,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="C256" s="28" t="s">
         <v>755</v>
-      </c>
-      <c r="D256" s="28" t="s">
-        <v>756</v>
       </c>
       <c r="E256" s="25" t="s">
         <v>757</v>
@@ -11994,11 +12094,12 @@
         <v>256</v>
       </c>
       <c r="B257" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="C257" s="28" t="s">
         <v>758</v>
       </c>
-      <c r="D257" s="28" t="s">
-        <v>759</v>
-      </c>
+      <c r="E257" s="25"/>
       <c r="I257" s="25" t="s">
         <v>746</v>
       </c>
@@ -12009,11 +12110,12 @@
         <v>257</v>
       </c>
       <c r="B258" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="C258" s="28" t="s">
         <v>760</v>
       </c>
-      <c r="D258" s="28" t="s">
-        <v>761</v>
-      </c>
+      <c r="E258" s="25"/>
       <c r="I258" s="25" t="s">
         <v>746</v>
       </c>
@@ -12024,11 +12126,12 @@
         <v>258</v>
       </c>
       <c r="B259" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="C259" s="28" t="s">
         <v>751</v>
       </c>
-      <c r="D259" s="28" t="s">
-        <v>762</v>
-      </c>
+      <c r="E259" s="25"/>
       <c r="I259" s="25" t="s">
         <v>746</v>
       </c>
@@ -12039,11 +12142,12 @@
         <v>259</v>
       </c>
       <c r="B260" s="28" t="s">
+        <v>803</v>
+      </c>
+      <c r="C260" s="28" t="s">
         <v>806</v>
       </c>
-      <c r="D260" s="28" t="s">
-        <v>803</v>
-      </c>
+      <c r="E260" s="25"/>
       <c r="I260" s="25" t="s">
         <v>205</v>
       </c>
@@ -12057,11 +12161,12 @@
         <v>260</v>
       </c>
       <c r="B261" s="28" t="s">
+        <v>804</v>
+      </c>
+      <c r="C261" s="28" t="s">
         <v>805</v>
       </c>
-      <c r="D261" s="28" t="s">
-        <v>804</v>
-      </c>
+      <c r="E261" s="25"/>
       <c r="I261" s="25" t="s">
         <v>205</v>
       </c>
@@ -12072,10 +12177,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D249" r:id="rId1" xr:uid="{AE7B7B0C-6D29-4339-867A-4A80FCE52E21}"/>
-    <hyperlink ref="D58" r:id="rId2" xr:uid="{70955134-FCB2-4FFD-90E5-047A01E039A6}"/>
-    <hyperlink ref="D57" r:id="rId3" xr:uid="{3F8FB65A-EC90-4A6E-B320-F68179C2CD16}"/>
-    <hyperlink ref="D66" r:id="rId4" xr:uid="{4B29291E-6A1A-4C96-BCFD-DC19D9970A1C}"/>
+    <hyperlink ref="B249" r:id="rId1" xr:uid="{AE7B7B0C-6D29-4339-867A-4A80FCE52E21}"/>
+    <hyperlink ref="B58" r:id="rId2" xr:uid="{70955134-FCB2-4FFD-90E5-047A01E039A6}"/>
+    <hyperlink ref="B57" r:id="rId3" xr:uid="{3F8FB65A-EC90-4A6E-B320-F68179C2CD16}"/>
+    <hyperlink ref="B66" r:id="rId4" xr:uid="{4B29291E-6A1A-4C96-BCFD-DC19D9970A1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
